--- a/sample_apps/network_en/sample-knowledge-en.xlsx
+++ b/sample_apps/network_en/sample-knowledge-en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb-develop\sample_apps\network_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb\sample_apps\network_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99FA996-1AE2-4DD2-BFA1-5A1AF3BA606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F365935-A1A8-4D6F-8FFD-39E4EAFA5E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>slot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Hello! I'm a chatbot. Let me ask you about sandwich. Do you have sandwiches very often?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -170,10 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>synonyms</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,9 +342,6 @@
     <t>_set(&amp;topic_sandwich,#favorite-sandwich)</t>
   </si>
   <si>
-    <t>is_novel_sandwith(#favorite-sandwich)</t>
-  </si>
-  <si>
     <t>egg-salad-sandwich</t>
   </si>
   <si>
@@ -361,6 +350,18 @@
   </si>
   <si>
     <t>known-sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slot name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entity class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_novel_sandwich(#favorite-sandwich)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -786,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -797,8 +798,7 @@
     <col min="3" max="3" width="36.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="40.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="46.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.625" style="4"/>
   </cols>
@@ -808,244 +808,244 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1082,90 +1082,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1193,18 +1193,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1234,30 +1234,30 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1274,13 +1274,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="7"/>
@@ -1291,129 +1291,129 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sample_apps/network_en/sample-knowledge-en.xlsx
+++ b/sample_apps/network_en/sample-knowledge-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb\sample_apps\network_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-v0.3\sample_apps\network_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F365935-A1A8-4D6F-8FFD-39E4EAFA5E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8311966-042A-4681-B20D-45C14BF52CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8F96FF-CF47-4A99-83E7-8D5E860D6DFF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/sample_apps/network_en/sample-knowledge-en.xlsx
+++ b/sample_apps/network_en/sample-knowledge-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-v0.3\sample_apps\network_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb\sample_apps\network_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8311966-042A-4681-B20D-45C14BF52CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EAD2B2-B0C6-4FE2-B68C-68125667AC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -330,12 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_eq(#favorite-sandwich, "egg salad sandwich")</t>
-  </si>
-  <si>
-    <t>_set(&amp;topic_sandwich, #favorite-sandwich)</t>
-  </si>
-  <si>
     <t>is_known_sandwich(#favorite-sandwich)</t>
   </si>
   <si>
@@ -362,6 +356,14 @@
   </si>
   <si>
     <t>is_novel_sandwich(#favorite-sandwich)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_set(&amp;topic_sandwich, "egg salad sandwich")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_eq(#favorite-sandwich, "egg salad, sandwich")</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -787,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -927,13 +929,13 @@
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -948,13 +950,13 @@
         <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -968,7 +970,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>25</v>
@@ -998,7 +1000,7 @@
     </row>
     <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>62</v>
@@ -1012,7 +1014,7 @@
     </row>
     <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>63</v>
@@ -1059,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8F96FF-CF47-4A99-83E7-8D5E860D6DFF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1193,10 +1195,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1234,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>57</v>
@@ -1291,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>5</v>

--- a/sample_apps/network_en/sample-knowledge-en.xlsx
+++ b/sample_apps/network_en/sample-knowledge-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-v0.3\sample_apps\network_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-v0.7\sample_apps\network_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8311966-042A-4681-B20D-45C14BF52CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBDE4FE-ABBE-4B5E-B860-64D296AD3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +425,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -434,13 +458,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,9 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -470,6 +506,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,266 +865,331 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="4"/>
-    <col min="2" max="2" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="40.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="46.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="4"/>
+    <col min="1" max="1" width="8.625" style="3"/>
+    <col min="2" max="2" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="40.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:8" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:8" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:8" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:8" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="16" t="s">
         <v>48</v>
       </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1059,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8F96FF-CF47-4A99-83E7-8D5E860D6DFF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1070,13 +1213,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1230,19 +1373,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1279,140 +1422,140 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
     </row>

--- a/sample_apps/network_en/sample-knowledge-en.xlsx
+++ b/sample_apps/network_en/sample-knowledge-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-v0.7\sample_apps\network_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\network_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBDE4FE-ABBE-4B5E-B860-64D296AD3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09E6F89-4D78-4EE4-9549-D32BB837FF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>conditions</t>
     <phoneticPr fontId="1"/>
@@ -182,9 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Egg Sandwich</t>
-  </si>
-  <si>
     <t>Grilled Cheese sandwich</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -204,164 +201,202 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Chicken salad Sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#initial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sorry, I encounterd an error.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I like egg salad sandwiches.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Because I like eggs.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yeah</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nope</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes, I do.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system utterance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user utterance example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>next state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use synonyms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>automatically extensible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matching strictness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user utterance type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I like egg salad sandwich, too! Could you tell me why you like {topic_sandwich}?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You like {topic_sandwich}!  Could you tell me why you like {topic_sandwich}?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maybe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Any sandwich is fine with me.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>That kind of sandwich is new to me. Thank you for the information. Could you tell me what it's like?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chiken salad sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>huh?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite-sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I like (roast beef sandwiches) [favorite-sandwich]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(chicken salad sandwiches) [favorite-sandwich] are my favorite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#final_agree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I agree. Thank you for your time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_eq(#favorite-sandwich, "egg salad sandwich")</t>
+  </si>
+  <si>
+    <t>_set(&amp;topic_sandwich, #favorite-sandwich)</t>
+  </si>
+  <si>
+    <t>is_known_sandwich(#favorite-sandwich)</t>
+  </si>
+  <si>
+    <t>_set(&amp;topic_sandwich,#favorite-sandwich)</t>
+  </si>
+  <si>
+    <t>egg-salad-sandwich</t>
+  </si>
+  <si>
+    <t>egg-salad-sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>known-sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slot name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entity class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_novel_sandwich(#favorite-sandwich)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tuna Sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg salad sandwiches, Egg Sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chicken salad Sandwiches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grilled Cheese sandwiches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ham Sandwiches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grilled Chicken Sandwiches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meatball Sandwiches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Salmon Sandwiches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Tuna Sandwiches</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Vegetable Sandwich</t>
-  </si>
-  <si>
-    <t>Chicken salad Sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#initial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#final</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sorry, I encounterd an error.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like egg salad sandwiches.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Because I like eggs.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yeah</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nope</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yes, I do.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>system utterance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user utterance example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>next state</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>use synonyms</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>automatically extensible</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>matching strictness</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user utterance type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like egg salad sandwich, too! Could you tell me why you like {topic_sandwich}?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You like {topic_sandwich}!  Could you tell me why you like {topic_sandwich}?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maybe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Any sandwich is fine with me.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>That kind of sandwich is new to me. Thank you for the information. Could you tell me what it's like?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chiken salad sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>huh?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>favorite-sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like (roast beef sandwiches) [favorite-sandwich]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(chicken salad sandwiches) [favorite-sandwich] are my favorite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#final_agree</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I agree. Thank you for your time.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_eq(#favorite-sandwich, "egg salad sandwich")</t>
-  </si>
-  <si>
-    <t>_set(&amp;topic_sandwich, #favorite-sandwich)</t>
-  </si>
-  <si>
-    <t>is_known_sandwich(#favorite-sandwich)</t>
-  </si>
-  <si>
-    <t>_set(&amp;topic_sandwich,#favorite-sandwich)</t>
-  </si>
-  <si>
-    <t>egg-salad-sandwich</t>
-  </si>
-  <si>
-    <t>egg-salad-sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>known-sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slot name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>entity class</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>is_novel_sandwich(#favorite-sandwich)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vegetable Sandwiches</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -567,9 +602,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -607,7 +642,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -713,7 +748,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -855,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -886,16 +921,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>0</v>
@@ -904,13 +939,13 @@
         <v>22</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>7</v>
@@ -930,7 +965,7 @@
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
@@ -948,11 +983,11 @@
     <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -988,7 +1023,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -1012,7 +1047,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
@@ -1024,19 +1059,19 @@
         <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
@@ -1052,13 +1087,13 @@
         <v>23</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
@@ -1074,7 +1109,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
@@ -1088,13 +1123,13 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -1103,41 +1138,41 @@
         <v>25</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>26</v>
@@ -1146,13 +1181,13 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>21</v>
@@ -1166,10 +1201,10 @@
     <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="17"/>
@@ -1180,10 +1215,10 @@
     <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="15"/>
@@ -1253,7 +1288,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1264,7 +1299,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1275,7 +1310,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1286,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -1297,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1308,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1336,15 +1371,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -1377,16 +1412,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1416,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60152591-03E8-42BE-B56A-8DD50B7AC6A8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1434,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>5</v>
@@ -1468,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1479,7 +1514,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1490,7 +1528,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1501,7 +1542,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1512,7 +1556,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1523,7 +1570,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1534,7 +1584,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1545,7 +1598,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1556,7 +1612,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>90</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
